--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H2">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I2">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J2">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>4710.9211868205</v>
+        <v>4834.58437436292</v>
       </c>
       <c r="R2">
-        <v>4710.9211868205</v>
+        <v>19338.33749745168</v>
       </c>
       <c r="S2">
-        <v>0.01026932772461939</v>
+        <v>0.009584381207384566</v>
       </c>
       <c r="T2">
-        <v>0.01026932772461939</v>
+        <v>0.005210279716155101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H3">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I3">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J3">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>1902.022375828172</v>
+        <v>1.26154846251</v>
       </c>
       <c r="R3">
-        <v>1902.022375828172</v>
+        <v>7.569290775060002</v>
       </c>
       <c r="S3">
-        <v>0.00414621479374007</v>
+        <v>2.500972253251668E-06</v>
       </c>
       <c r="T3">
-        <v>0.00414621479374007</v>
+        <v>2.039375008124252E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H4">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I4">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J4">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>1338.21716843111</v>
+        <v>1997.066510501603</v>
       </c>
       <c r="R4">
-        <v>1338.21716843111</v>
+        <v>11982.39906300962</v>
       </c>
       <c r="S4">
-        <v>0.002917176943604616</v>
+        <v>0.003959109046611871</v>
       </c>
       <c r="T4">
-        <v>0.002917176943604616</v>
+        <v>0.003228387693466507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H5">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I5">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J5">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>3095.091083362016</v>
+        <v>1417.098620395013</v>
       </c>
       <c r="R5">
-        <v>3095.091083362016</v>
+        <v>8502.591722370076</v>
       </c>
       <c r="S5">
-        <v>0.00674698289615069</v>
+        <v>0.002809344575378174</v>
       </c>
       <c r="T5">
-        <v>0.00674698289615069</v>
+        <v>0.002290831938973598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H6">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I6">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J6">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>30.0490809328687</v>
+        <v>3282.870436361618</v>
       </c>
       <c r="R6">
-        <v>30.0490809328687</v>
+        <v>19697.22261816971</v>
       </c>
       <c r="S6">
-        <v>6.550393175469576E-05</v>
+        <v>0.006508166841268311</v>
       </c>
       <c r="T6">
-        <v>6.550393175469576E-05</v>
+        <v>0.005306973233121254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>692.584010109969</v>
+        <v>20.5638075</v>
       </c>
       <c r="H7">
-        <v>692.584010109969</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I7">
-        <v>0.8325531468029204</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J7">
-        <v>0.8325531468029204</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>162437.7199905531</v>
+        <v>31.02035966709751</v>
       </c>
       <c r="R7">
-        <v>162437.7199905531</v>
+        <v>124.08143866839</v>
       </c>
       <c r="S7">
-        <v>0.3540976627012521</v>
+        <v>6.149669324549078E-05</v>
       </c>
       <c r="T7">
-        <v>0.3540976627012521</v>
+        <v>3.343095046978307E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H8">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J8">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>65583.81383346104</v>
+        <v>174662.080711488</v>
       </c>
       <c r="R8">
-        <v>65583.81383346104</v>
+        <v>1047972.484268928</v>
       </c>
       <c r="S8">
-        <v>0.1429660253222785</v>
+        <v>0.3462609884090538</v>
       </c>
       <c r="T8">
-        <v>0.1429660253222785</v>
+        <v>0.2823525951284381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H9">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J9">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>46143.1930341581</v>
+        <v>45.576757445548</v>
       </c>
       <c r="R9">
-        <v>46143.1930341581</v>
+        <v>410.190817009932</v>
       </c>
       <c r="S9">
-        <v>0.1005874547113708</v>
+        <v>9.035420291164072E-05</v>
       </c>
       <c r="T9">
-        <v>0.1005874547113708</v>
+        <v>0.0001105166818968574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H10">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J10">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>106722.129028811</v>
+        <v>72149.28213749613</v>
       </c>
       <c r="R10">
-        <v>106722.129028811</v>
+        <v>649343.5392374652</v>
       </c>
       <c r="S10">
-        <v>0.2326433567880735</v>
+        <v>0.1430332310491589</v>
       </c>
       <c r="T10">
-        <v>0.2326433567880735</v>
+        <v>0.1749509993685424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H11">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J11">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>1036.125207995923</v>
+        <v>51196.41616435502</v>
       </c>
       <c r="R11">
-        <v>1036.125207995923</v>
+        <v>460767.7454791951</v>
       </c>
       <c r="S11">
-        <v>0.002258647279945461</v>
+        <v>0.1014949644013078</v>
       </c>
       <c r="T11">
-        <v>0.002258647279945461</v>
+        <v>0.12414349674294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H12">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J12">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.538651801622</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N12">
-        <v>234.538651801622</v>
+        <v>478.929367</v>
       </c>
       <c r="O12">
-        <v>0.4253153856435704</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P12">
-        <v>0.4253153856435704</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q12">
-        <v>77.33040642726954</v>
+        <v>118602.332014675</v>
       </c>
       <c r="R12">
-        <v>77.33040642726954</v>
+        <v>1067420.988132075</v>
       </c>
       <c r="S12">
-        <v>0.0001685723991522814</v>
+        <v>0.2351246506610465</v>
       </c>
       <c r="T12">
-        <v>0.0001685723991522814</v>
+        <v>0.2875925566918905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.329712846190816</v>
+        <v>742.921651</v>
       </c>
       <c r="H13">
-        <v>0.329712846190816</v>
+        <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.0003963468166034114</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J13">
-        <v>0.0003963468166034114</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.69438057492491</v>
+        <v>1.508493</v>
       </c>
       <c r="N13">
-        <v>94.69438057492491</v>
+        <v>3.016986</v>
       </c>
       <c r="O13">
-        <v>0.1717199987427602</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P13">
-        <v>0.1717199987427602</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q13">
-        <v>31.22195373763481</v>
+        <v>1120.692110081943</v>
       </c>
       <c r="R13">
-        <v>31.22195373763481</v>
+        <v>6724.152660491658</v>
       </c>
       <c r="S13">
-        <v>6.806067484883481E-05</v>
+        <v>0.00222172984633223</v>
       </c>
       <c r="T13">
-        <v>6.806067484883481E-05</v>
+        <v>0.001811671567936321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H14">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.6246872012414</v>
+        <v>235.101616</v>
       </c>
       <c r="N14">
-        <v>66.6246872012414</v>
+        <v>470.203232</v>
       </c>
       <c r="O14">
-        <v>0.1208180583997979</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P14">
-        <v>0.1208180583997979</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q14">
-        <v>21.96701524369413</v>
+        <v>148.443395444016</v>
       </c>
       <c r="R14">
-        <v>21.96701524369413</v>
+        <v>890.6603726640958</v>
       </c>
       <c r="S14">
-        <v>4.788585283496495E-05</v>
+        <v>0.0002942834335870836</v>
       </c>
       <c r="T14">
-        <v>4.788585283496495E-05</v>
+        <v>0.0002399683878868283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H15">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>154.092684022355</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N15">
-        <v>154.092684022355</v>
+        <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.2794336405807186</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P15">
-        <v>0.2794336405807186</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q15">
-        <v>50.80633742619274</v>
+        <v>0.038735188548</v>
       </c>
       <c r="R15">
-        <v>50.80633742619274</v>
+        <v>0.348616696932</v>
       </c>
       <c r="S15">
-        <v>0.0001107526338960697</v>
+        <v>7.67910505715129E-08</v>
       </c>
       <c r="T15">
-        <v>0.0001107526338960697</v>
+        <v>9.392692132801725E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H16">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49602819711562</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N16">
-        <v>1.49602819711562</v>
+        <v>291.346801</v>
       </c>
       <c r="O16">
-        <v>0.002712916633152936</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P16">
-        <v>0.002712916633152936</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q16">
-        <v>0.4932597148527061</v>
+        <v>61.31888716606699</v>
       </c>
       <c r="R16">
-        <v>0.4932597148527061</v>
+        <v>551.8699844946029</v>
       </c>
       <c r="S16">
-        <v>1.075255871260611E-06</v>
+        <v>0.000121562381438349</v>
       </c>
       <c r="T16">
-        <v>1.075255871260611E-06</v>
+        <v>0.0001486889442562458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H17">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I17">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J17">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>234.538651801622</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N17">
-        <v>234.538651801622</v>
+        <v>206.736805</v>
       </c>
       <c r="O17">
-        <v>0.4253153856435704</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P17">
-        <v>0.4253153856435704</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q17">
-        <v>246.0226102710561</v>
+        <v>43.51127513793499</v>
       </c>
       <c r="R17">
-        <v>246.0226102710561</v>
+        <v>391.601476241415</v>
       </c>
       <c r="S17">
-        <v>0.000536304198764354</v>
+        <v>8.625946212725218E-05</v>
       </c>
       <c r="T17">
-        <v>0.000536304198764354</v>
+        <v>0.0001055082024887562</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H18">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I18">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J18">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.69438057492491</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N18">
-        <v>94.69438057492491</v>
+        <v>478.929367</v>
       </c>
       <c r="O18">
-        <v>0.1717199987427602</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P18">
-        <v>0.1717199987427602</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q18">
-        <v>99.33099942413288</v>
+        <v>100.798827084389</v>
       </c>
       <c r="R18">
-        <v>99.33099942413288</v>
+        <v>907.1894437595009</v>
       </c>
       <c r="S18">
-        <v>0.0002165314480645901</v>
+        <v>0.0001998298735165486</v>
       </c>
       <c r="T18">
-        <v>0.0002165314480645901</v>
+        <v>0.0002444217740099438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.04896403377959</v>
+        <v>0.631401</v>
       </c>
       <c r="H19">
-        <v>1.04896403377959</v>
+        <v>1.894203</v>
       </c>
       <c r="I19">
-        <v>0.001260956496913084</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J19">
-        <v>0.001260956496913084</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.6246872012414</v>
+        <v>1.508493</v>
       </c>
       <c r="N19">
-        <v>66.6246872012414</v>
+        <v>3.016986</v>
       </c>
       <c r="O19">
-        <v>0.1208180583997979</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P19">
-        <v>0.1208180583997979</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q19">
-        <v>69.8869006359176</v>
+        <v>0.9524639886930001</v>
       </c>
       <c r="R19">
-        <v>69.8869006359176</v>
+        <v>5.714783932158</v>
       </c>
       <c r="S19">
-        <v>0.0001523463156836496</v>
+        <v>1.888223939652038E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001523463156836496</v>
+        <v>1.539719885841046E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H20">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I20">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J20">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>154.092684022355</v>
+        <v>235.101616</v>
       </c>
       <c r="N20">
-        <v>154.092684022355</v>
+        <v>470.203232</v>
       </c>
       <c r="O20">
-        <v>0.2794336405807186</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P20">
-        <v>0.2794336405807186</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q20">
-        <v>161.6376834080133</v>
+        <v>252.2377809542133</v>
       </c>
       <c r="R20">
-        <v>161.6376834080133</v>
+        <v>1513.42668572528</v>
       </c>
       <c r="S20">
-        <v>0.0003523536645463328</v>
+        <v>0.0005000518887186698</v>
       </c>
       <c r="T20">
-        <v>0.0003523536645463328</v>
+        <v>0.0004077587519382867</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H21">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I21">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J21">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.49602819711562</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N21">
-        <v>1.49602819711562</v>
+        <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.002712916633152936</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P21">
-        <v>0.002712916633152936</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q21">
-        <v>1.569279772294408</v>
+        <v>0.06581955347333335</v>
       </c>
       <c r="R21">
-        <v>1.569279772294408</v>
+        <v>0.59237598126</v>
       </c>
       <c r="S21">
-        <v>3.420869854157765E-06</v>
+        <v>1.304847826699454E-07</v>
       </c>
       <c r="T21">
-        <v>3.420869854157765E-06</v>
+        <v>1.596023732600163E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.3985232690641</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H22">
-        <v>17.3985232690641</v>
+        <v>3.218665</v>
       </c>
       <c r="I22">
-        <v>0.02091471227451985</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J22">
-        <v>0.02091471227451985</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>234.538651801622</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N22">
-        <v>234.538651801622</v>
+        <v>291.346801</v>
       </c>
       <c r="O22">
-        <v>0.4253153856435704</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P22">
-        <v>0.4253153856435704</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q22">
-        <v>4080.626190865443</v>
+        <v>104.1941945822961</v>
       </c>
       <c r="R22">
-        <v>4080.626190865443</v>
+        <v>937.7477512406649</v>
       </c>
       <c r="S22">
-        <v>0.008895348916661727</v>
+        <v>0.0002065610615400058</v>
       </c>
       <c r="T22">
-        <v>0.008895348916661727</v>
+        <v>0.0002526550220670801</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.3985232690641</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H23">
-        <v>17.3985232690641</v>
+        <v>3.218665</v>
       </c>
       <c r="I23">
-        <v>0.02091471227451985</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J23">
-        <v>0.02091471227451985</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.69438057492491</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N23">
-        <v>94.69438057492491</v>
+        <v>206.736805</v>
       </c>
       <c r="O23">
-        <v>0.1717199987427602</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P23">
-        <v>0.1717199987427602</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q23">
-        <v>1647.542383882442</v>
+        <v>73.93516871836945</v>
       </c>
       <c r="R23">
-        <v>1647.542383882442</v>
+        <v>665.416518465325</v>
       </c>
       <c r="S23">
-        <v>0.003591474365485741</v>
+        <v>0.000146573683848992</v>
       </c>
       <c r="T23">
-        <v>0.003591474365485741</v>
+        <v>0.0001792815018049662</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.3985232690641</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H24">
-        <v>17.3985232690641</v>
+        <v>3.218665</v>
       </c>
       <c r="I24">
-        <v>0.02091471227451985</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J24">
-        <v>0.02091471227451985</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.6246872012414</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N24">
-        <v>66.6246872012414</v>
+        <v>478.929367</v>
       </c>
       <c r="O24">
-        <v>0.1208180583997979</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P24">
-        <v>0.1208180583997979</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q24">
-        <v>1159.171170564916</v>
+        <v>171.2792434483395</v>
       </c>
       <c r="R24">
-        <v>1159.171170564916</v>
+        <v>1541.513191035055</v>
       </c>
       <c r="S24">
-        <v>0.00252687492899791</v>
+        <v>0.0003395546411034835</v>
       </c>
       <c r="T24">
-        <v>0.00252687492899791</v>
+        <v>0.0004153260285427254</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.3985232690641</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H25">
-        <v>17.3985232690641</v>
+        <v>3.218665</v>
       </c>
       <c r="I25">
-        <v>0.02091471227451985</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J25">
-        <v>0.02091471227451985</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>154.092684022355</v>
+        <v>1.508493</v>
       </c>
       <c r="N25">
-        <v>154.092684022355</v>
+        <v>3.016986</v>
       </c>
       <c r="O25">
-        <v>0.2794336405807186</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P25">
-        <v>0.2794336405807186</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q25">
-        <v>2680.985148555485</v>
+        <v>1.618444540615</v>
       </c>
       <c r="R25">
-        <v>2680.985148555485</v>
+        <v>9.710667243690001</v>
       </c>
       <c r="S25">
-        <v>0.005844274192567325</v>
+        <v>3.208505269350818E-06</v>
       </c>
       <c r="T25">
-        <v>0.005844274192567325</v>
+        <v>2.616320693378994E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H26">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I26">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J26">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49602819711562</v>
+        <v>235.101616</v>
       </c>
       <c r="N26">
-        <v>1.49602819711562</v>
+        <v>470.203232</v>
       </c>
       <c r="O26">
-        <v>0.002712916633152936</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P26">
-        <v>0.002712916633152936</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q26">
-        <v>26.02868139869213</v>
+        <v>4781.147618675445</v>
       </c>
       <c r="R26">
-        <v>26.02868139869213</v>
+        <v>28686.88571205267</v>
       </c>
       <c r="S26">
-        <v>5.673987080715279E-05</v>
+        <v>0.009478444854363088</v>
       </c>
       <c r="T26">
-        <v>5.673987080715279E-05</v>
+        <v>0.007729035588755429</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>100.432521958775</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H27">
-        <v>100.432521958775</v>
+        <v>61.009546</v>
       </c>
       <c r="I27">
-        <v>0.1207296313191738</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J27">
-        <v>0.1207296313191738</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>234.538651801622</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N27">
-        <v>234.538651801622</v>
+        <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.4253153856435704</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P27">
-        <v>0.4253153856435704</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q27">
-        <v>23555.30829724788</v>
+        <v>1.247604542669334</v>
       </c>
       <c r="R27">
-        <v>23555.30829724788</v>
+        <v>11.228440884024</v>
       </c>
       <c r="S27">
-        <v>0.05134816970312049</v>
+        <v>2.473328958000301E-06</v>
       </c>
       <c r="T27">
-        <v>0.05134816970312049</v>
+        <v>3.025250634382931E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>100.432521958775</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H28">
-        <v>100.432521958775</v>
+        <v>61.009546</v>
       </c>
       <c r="I28">
-        <v>0.1207296313191738</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J28">
-        <v>0.1207296313191738</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.69438057492491</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N28">
-        <v>94.69438057492491</v>
+        <v>291.346801</v>
       </c>
       <c r="O28">
-        <v>0.1717199987427602</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P28">
-        <v>0.1717199987427602</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q28">
-        <v>9510.395456463742</v>
+        <v>1974.992895284705</v>
       </c>
       <c r="R28">
-        <v>9510.395456463742</v>
+        <v>17774.93605756234</v>
       </c>
       <c r="S28">
-        <v>0.02073169213834243</v>
+        <v>0.003915348936852333</v>
       </c>
       <c r="T28">
-        <v>0.02073169213834243</v>
+        <v>0.004789056391681812</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>100.432521958775</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H29">
-        <v>100.432521958775</v>
+        <v>61.009546</v>
       </c>
       <c r="I29">
-        <v>0.1207296313191738</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J29">
-        <v>0.1207296313191738</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>66.6246872012414</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N29">
-        <v>66.6246872012414</v>
+        <v>206.736805</v>
       </c>
       <c r="O29">
-        <v>0.1208180583997979</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P29">
-        <v>0.1208180583997979</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q29">
-        <v>6691.285360335192</v>
+        <v>1401.435401615614</v>
       </c>
       <c r="R29">
-        <v>6691.285360335192</v>
+        <v>12612.91861454053</v>
       </c>
       <c r="S29">
-        <v>0.01458631964730602</v>
+        <v>0.002778292834816464</v>
       </c>
       <c r="T29">
-        <v>0.01458631964730602</v>
+        <v>0.003398266993091599</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>100.432521958775</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H30">
-        <v>100.432521958775</v>
+        <v>61.009546</v>
       </c>
       <c r="I30">
-        <v>0.1207296313191738</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J30">
-        <v>0.1207296313191738</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>154.092684022355</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N30">
-        <v>154.092684022355</v>
+        <v>478.929367</v>
       </c>
       <c r="O30">
-        <v>0.2794336405807186</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P30">
-        <v>0.2794336405807186</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q30">
-        <v>15475.91687176175</v>
+        <v>3246.584805193043</v>
       </c>
       <c r="R30">
-        <v>15475.91687176175</v>
+        <v>29219.26324673738</v>
       </c>
       <c r="S30">
-        <v>0.0337359204054847</v>
+        <v>0.006436231945827375</v>
       </c>
       <c r="T30">
-        <v>0.0337359204054847</v>
+        <v>0.007872472731202134</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>100.432521958775</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H31">
-        <v>100.432521958775</v>
+        <v>61.009546</v>
       </c>
       <c r="I31">
-        <v>0.1207296313191738</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J31">
-        <v>0.1207296313191738</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.49602819711562</v>
+        <v>1.508493</v>
       </c>
       <c r="N31">
-        <v>1.49602819711562</v>
+        <v>3.016986</v>
       </c>
       <c r="O31">
-        <v>0.002712916633152936</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P31">
-        <v>0.002712916633152936</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q31">
-        <v>150.2498847577611</v>
+        <v>30.677491024726</v>
       </c>
       <c r="R31">
-        <v>150.2498847577611</v>
+        <v>184.064946148356</v>
       </c>
       <c r="S31">
-        <v>0.0003275294249202084</v>
+        <v>6.081696909175112E-05</v>
       </c>
       <c r="T31">
-        <v>0.0003275294249202084</v>
+        <v>4.959215628015268E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>111.4773615</v>
+      </c>
+      <c r="H32">
+        <v>222.954723</v>
+      </c>
+      <c r="I32">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J32">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>235.101616</v>
+      </c>
+      <c r="N32">
+        <v>470.203232</v>
+      </c>
+      <c r="O32">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P32">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q32">
+        <v>26208.50783606618</v>
+      </c>
+      <c r="R32">
+        <v>104834.0313442647</v>
+      </c>
+      <c r="S32">
+        <v>0.05195737844800461</v>
+      </c>
+      <c r="T32">
+        <v>0.02824516984191472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>111.4773615</v>
+      </c>
+      <c r="H33">
+        <v>222.954723</v>
+      </c>
+      <c r="I33">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J33">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.184044</v>
+      </c>
+      <c r="O33">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P33">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q33">
+        <v>6.838913173302001</v>
+      </c>
+      <c r="R33">
+        <v>41.033479039812</v>
+      </c>
+      <c r="S33">
+        <v>1.355788746695892E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.105554722853405E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>111.4773615</v>
+      </c>
+      <c r="H34">
+        <v>222.954723</v>
+      </c>
+      <c r="I34">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J34">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N34">
+        <v>291.346801</v>
+      </c>
+      <c r="O34">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P34">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q34">
+        <v>10826.19088564852</v>
+      </c>
+      <c r="R34">
+        <v>64957.14531389112</v>
+      </c>
+      <c r="S34">
+        <v>0.02146251516928817</v>
+      </c>
+      <c r="T34">
+        <v>0.017501240563875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>111.4773615</v>
+      </c>
+      <c r="H35">
+        <v>222.954723</v>
+      </c>
+      <c r="I35">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J35">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N35">
+        <v>206.736805</v>
+      </c>
+      <c r="O35">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P35">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q35">
+        <v>7682.157848780002</v>
+      </c>
+      <c r="R35">
+        <v>46092.94709268001</v>
+      </c>
+      <c r="S35">
+        <v>0.01522958823688155</v>
+      </c>
+      <c r="T35">
+        <v>0.01241870700242189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>111.4773615</v>
+      </c>
+      <c r="H36">
+        <v>222.954723</v>
+      </c>
+      <c r="I36">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J36">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N36">
+        <v>478.929367</v>
+      </c>
+      <c r="O36">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P36">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q36">
+        <v>17796.59405934173</v>
+      </c>
+      <c r="R36">
+        <v>106779.5643560503</v>
+      </c>
+      <c r="S36">
+        <v>0.03528107660346366</v>
+      </c>
+      <c r="T36">
+        <v>0.02876934991632662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>111.4773615</v>
+      </c>
+      <c r="H37">
+        <v>222.954723</v>
+      </c>
+      <c r="I37">
+        <v>0.1242774927932157</v>
+      </c>
+      <c r="J37">
+        <v>0.08712675361664747</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.508493</v>
+      </c>
+      <c r="N37">
+        <v>3.016986</v>
+      </c>
+      <c r="O37">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P37">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q37">
+        <v>168.1628194812195</v>
+      </c>
+      <c r="R37">
+        <v>672.6512779248781</v>
+      </c>
+      <c r="S37">
+        <v>0.0003333764481107005</v>
+      </c>
+      <c r="T37">
+        <v>0.0001812307448807135</v>
       </c>
     </row>
   </sheetData>
